--- a/doc/mct-mrx-t4-case.xlsx
+++ b/doc/mct-mrx-t4-case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="198">
   <si>
     <t>项目</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>帮助</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>公司信息</t>
+  </si>
+  <si>
+    <t>产品信息</t>
   </si>
   <si>
     <t>readme</t>
@@ -608,11 +617,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +652,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -657,6 +712,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -664,15 +743,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,85 +768,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,7 +801,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,19 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,43 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,61 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,13 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,30 +1191,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,13 +1210,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,8 +1228,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,117 +1252,137 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1389,56 +1391,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1484,9 +1486,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="32" applyBorder="1" applyAlignment="1">
@@ -1539,18 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,10 +1877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2224,399 +2211,399 @@
       <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="23"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F57" s="15"/>
     </row>
     <row r="58" ht="28.5" spans="1:6">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="27"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="12"/>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="27" t="s">
         <v>81</v>
       </c>
       <c r="E59" s="14" t="s">
@@ -2625,27 +2612,27 @@
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="27"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="28"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="14"/>
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="27"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="28"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="14"/>
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="27"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="14" t="s">
@@ -2654,134 +2641,134 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="27"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="29"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="14"/>
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="27"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="27"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="14"/>
       <c r="F65" s="15"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="27"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="14"/>
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="27"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="14"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="27"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="29"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="14"/>
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="27"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="29"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="14"/>
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="27"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="29"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="14"/>
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="27"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="29"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="14"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="27"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="29"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="14"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="27"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="29"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="14"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="27"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="29"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="14"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="27"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="26"/>
+      <c r="B75" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="29"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="27"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="12" t="s">
         <v>94</v>
       </c>
@@ -2794,8 +2781,8 @@
       <c r="F76" s="15"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="27"/>
-      <c r="B77" s="22" t="s">
+      <c r="A77" s="26"/>
+      <c r="B77" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C77" s="12"/>
@@ -2808,237 +2795,237 @@
       <c r="F77" s="15"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="27"/>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="26"/>
+      <c r="B78" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="27"/>
-      <c r="B79" s="22" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="20"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="27"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D80" s="12"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="15"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="27"/>
-      <c r="C81" s="22" t="s">
+      <c r="A81" s="26"/>
+      <c r="C81" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="12"/>
-      <c r="E81" s="20"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="15"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="27"/>
-      <c r="C82" s="22" t="s">
+      <c r="A82" s="26"/>
+      <c r="C82" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="20"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="27"/>
-      <c r="C83" s="22" t="s">
+      <c r="A83" s="26"/>
+      <c r="C83" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="20"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="27"/>
-      <c r="C84" s="22" t="s">
+      <c r="A84" s="26"/>
+      <c r="C84" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="12"/>
-      <c r="E84" s="20"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="15"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="27"/>
-      <c r="C85" s="30" t="s">
+      <c r="A85" s="26"/>
+      <c r="C85" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D85" s="12"/>
-      <c r="E85" s="20"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="15"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="27"/>
-      <c r="C86" s="30" t="s">
+      <c r="A86" s="26"/>
+      <c r="C86" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="12"/>
-      <c r="E86" s="20"/>
+      <c r="E86" s="19"/>
       <c r="F86" s="15"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="27"/>
-      <c r="C87" s="30" t="s">
+      <c r="A87" s="26"/>
+      <c r="C87" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="20"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="15"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="27"/>
-      <c r="B88" s="30" t="s">
+      <c r="A88" s="26"/>
+      <c r="B88" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="12"/>
-      <c r="E88" s="20"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="15"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="27"/>
-      <c r="B89" s="30"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D89" s="12"/>
-      <c r="E89" s="20"/>
+      <c r="E89" s="19"/>
       <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="27"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="12"/>
-      <c r="E90" s="20"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="15"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="27"/>
-      <c r="B91" s="30"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D91" s="12"/>
-      <c r="E91" s="20"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="27"/>
-      <c r="B92" s="30"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D92" s="12"/>
-      <c r="E92" s="20"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="15"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="27"/>
-      <c r="B93" s="30"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D93" s="12"/>
-      <c r="E93" s="20"/>
+      <c r="E93" s="19"/>
       <c r="F93" s="15"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="27"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D94" s="12"/>
-      <c r="E94" s="20"/>
+      <c r="E94" s="19"/>
       <c r="F94" s="15"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="27"/>
-      <c r="B95" s="30"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="12"/>
-      <c r="E95" s="20"/>
+      <c r="E95" s="19"/>
       <c r="F95" s="15"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="27"/>
-      <c r="B96" s="30"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D96" s="12"/>
-      <c r="E96" s="20"/>
+      <c r="E96" s="19"/>
       <c r="F96" s="15"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="27"/>
-      <c r="B97" s="30"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="20"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="15"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="27"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="20"/>
+      <c r="E98" s="19"/>
       <c r="F98" s="15"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="27"/>
-      <c r="B99" s="30"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
-      <c r="E99" s="20"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="15"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="27"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="20"/>
+      <c r="E100" s="19"/>
       <c r="F100" s="15"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="31"/>
+      <c r="A101" s="30"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="20"/>
+      <c r="E101" s="19"/>
       <c r="F101" s="15"/>
     </row>
     <row r="102" spans="1:6">
@@ -3082,68 +3069,68 @@
       <c r="F104" s="15"/>
     </row>
     <row r="105" ht="85.5" spans="1:6">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C105" s="12"/>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="25" t="s">
+      <c r="E105" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F105" s="34" t="s">
+      <c r="F105" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="35"/>
-      <c r="B106" s="18" t="s">
+      <c r="A106" s="34"/>
+      <c r="B106" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F106" s="15"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="35"/>
-      <c r="B107" s="22" t="s">
+      <c r="A107" s="34"/>
+      <c r="B107" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="20"/>
+      <c r="E107" s="19"/>
       <c r="F107" s="15"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="35"/>
-      <c r="B108" s="22" t="s">
+      <c r="A108" s="34"/>
+      <c r="B108" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="20"/>
+      <c r="E108" s="19"/>
       <c r="F108" s="15"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="35"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
-      <c r="E109" s="20"/>
+      <c r="E109" s="19"/>
       <c r="F109" s="15"/>
     </row>
     <row r="110" ht="99.75" spans="1:6">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="21" t="s">
         <v>123</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -3155,13 +3142,13 @@
       <c r="E110" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F110" s="26" t="s">
+      <c r="F110" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="111" ht="99.75" spans="1:6">
-      <c r="A111" s="27"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="12" t="s">
         <v>51</v>
       </c>
@@ -3171,13 +3158,13 @@
       <c r="E111" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F111" s="26" t="s">
+      <c r="F111" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="112" ht="99.75" spans="1:6">
-      <c r="A112" s="27"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="12" t="s">
         <v>52</v>
       </c>
@@ -3187,13 +3174,13 @@
       <c r="E112" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F112" s="26" t="s">
+      <c r="F112" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="113" ht="99.75" spans="1:6">
-      <c r="A113" s="27"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="12" t="s">
         <v>53</v>
       </c>
@@ -3203,13 +3190,13 @@
       <c r="E113" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F113" s="26" t="s">
+      <c r="F113" s="25" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="114" ht="99.75" spans="1:6">
-      <c r="A114" s="27"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="12" t="s">
         <v>54</v>
       </c>
@@ -3219,13 +3206,13 @@
       <c r="E114" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F114" s="26" t="s">
+      <c r="F114" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="115" ht="114" spans="1:6">
-      <c r="A115" s="27"/>
-      <c r="B115" s="22" t="s">
+      <c r="A115" s="26"/>
+      <c r="B115" s="21" t="s">
         <v>140</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -3237,13 +3224,13 @@
       <c r="E115" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F115" s="26" t="s">
+      <c r="F115" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="116" ht="114" spans="1:6">
-      <c r="A116" s="27"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="12" t="s">
         <v>51</v>
       </c>
@@ -3253,13 +3240,13 @@
       <c r="E116" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="26" t="s">
+      <c r="F116" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="117" ht="114" spans="1:6">
-      <c r="A117" s="27"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="12" t="s">
         <v>52</v>
       </c>
@@ -3269,13 +3256,13 @@
       <c r="E117" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F117" s="26" t="s">
+      <c r="F117" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118" ht="114" spans="1:6">
-      <c r="A118" s="27"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="12" t="s">
         <v>53</v>
       </c>
@@ -3285,13 +3272,13 @@
       <c r="E118" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F118" s="26" t="s">
+      <c r="F118" s="25" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="119" ht="114" spans="1:6">
-      <c r="A119" s="27"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="12" t="s">
         <v>54</v>
       </c>
@@ -3301,27 +3288,27 @@
       <c r="E119" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F119" s="26" t="s">
+      <c r="F119" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="27"/>
-      <c r="B120" s="22" t="s">
+      <c r="A120" s="26"/>
+      <c r="B120" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D120" s="12"/>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F120" s="15"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="27"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="12" t="s">
         <v>51</v>
       </c>
@@ -3332,8 +3319,8 @@
       <c r="F121" s="15"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="27"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="12" t="s">
         <v>52</v>
       </c>
@@ -3344,8 +3331,8 @@
       <c r="F122" s="15"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="27"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="12" t="s">
         <v>53</v>
       </c>
@@ -3356,8 +3343,8 @@
       <c r="F123" s="15"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="27"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="12" t="s">
         <v>54</v>
       </c>
@@ -3368,46 +3355,46 @@
       <c r="F124" s="15"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="27"/>
+      <c r="A125" s="26"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="14"/>
       <c r="F125" s="15"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="27"/>
+      <c r="A126" s="26"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="14"/>
       <c r="F126" s="15"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="27"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="14"/>
       <c r="F127" s="15"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="27"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="14"/>
       <c r="F128" s="15"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="27"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="14"/>
       <c r="F129" s="15"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="31"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="30"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="14"/>
@@ -3422,18 +3409,18 @@
       <c r="D131" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E131" s="25" t="s">
+      <c r="E131" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F131" s="34" t="s">
+      <c r="F131" s="33" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C132" s="12"/>
@@ -3444,8 +3431,8 @@
       <c r="F132" s="15"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="36"/>
-      <c r="B133" s="22" t="s">
+      <c r="A133" s="35"/>
+      <c r="B133" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C133" s="12"/>
@@ -3456,8 +3443,8 @@
       <c r="F133" s="15"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="36"/>
-      <c r="B134" s="22" t="s">
+      <c r="A134" s="35"/>
+      <c r="B134" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C134" s="12"/>
@@ -3466,7 +3453,7 @@
       <c r="F134" s="15"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="36"/>
+      <c r="A135" s="35"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
       <c r="E135" s="14" t="s">
@@ -3475,7 +3462,7 @@
       <c r="F135" s="15"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="31" t="s">
         <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -3487,7 +3474,7 @@
       <c r="F136" s="15"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="35"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="1" t="s">
         <v>160</v>
       </c>
@@ -3497,35 +3484,35 @@
       <c r="F137" s="15"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="35"/>
+      <c r="A138" s="34"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="14"/>
       <c r="F138" s="15"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="35"/>
+      <c r="A139" s="34"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="14"/>
       <c r="F139" s="15"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="35"/>
+      <c r="A140" s="34"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="14"/>
       <c r="F140" s="15"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="37"/>
+      <c r="A141" s="6"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="14"/>
       <c r="F141" s="15"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="36"/>
+      <c r="A142" s="35"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="14"/>
@@ -3538,7 +3525,7 @@
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
-      <c r="E143" s="20" t="s">
+      <c r="E143" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F143" s="15" t="s">
@@ -3546,37 +3533,37 @@
       </c>
     </row>
     <row r="144" ht="28.5" spans="1:6">
-      <c r="A144" s="38" t="s">
+      <c r="A144" s="31" t="s">
         <v>163</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E144" s="25" t="s">
+      <c r="E144" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F144" s="26" t="s">
+      <c r="F144" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="39"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="26"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="25"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="40"/>
+      <c r="A146" s="6"/>
       <c r="B146" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="26"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="25"/>
     </row>
     <row r="147" ht="28.5" spans="1:6">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="31" t="s">
         <v>167</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -3587,42 +3574,42 @@
       <c r="E147" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F147" s="26" t="s">
+      <c r="F147" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="39"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="14"/>
-      <c r="F148" s="26"/>
+      <c r="F148" s="25"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="39"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="14"/>
-      <c r="F149" s="26"/>
+      <c r="F149" s="25"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="39"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="14"/>
-      <c r="F150" s="26"/>
+      <c r="F150" s="25"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="39"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="11" t="s">
         <v>173</v>
       </c>
@@ -3631,18 +3618,18 @@
         <v>174</v>
       </c>
       <c r="E151" s="14"/>
-      <c r="F151" s="26"/>
+      <c r="F151" s="25"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="40"/>
+      <c r="A152" s="6"/>
       <c r="B152" s="11"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="14"/>
-      <c r="F152" s="26"/>
+      <c r="F152" s="25"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="34" t="s">
         <v>175</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -3651,152 +3638,167 @@
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="14"/>
-      <c r="F153" s="26"/>
+      <c r="F153" s="25"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="39"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="14"/>
-      <c r="F154" s="26"/>
+      <c r="F154" s="25"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="39"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="11"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="14"/>
-      <c r="F155" s="26"/>
+      <c r="F155" s="25"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="39"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="14"/>
-      <c r="F156" s="26"/>
+      <c r="F156" s="25"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="39"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="11"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="14"/>
-      <c r="F157" s="26"/>
+      <c r="F157" s="25"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="40"/>
+      <c r="A158" s="6"/>
       <c r="B158" s="11"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="14"/>
-      <c r="F158" s="26"/>
+      <c r="F158" s="25"/>
     </row>
     <row r="159" ht="28.5" spans="1:6">
-      <c r="A159" s="41" t="s">
+      <c r="A159" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B159" s="42" t="s">
+      <c r="B159" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E159" s="25" t="s">
+      <c r="E159" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F159" s="34" t="s">
+      <c r="F159" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="160" ht="28.5" spans="1:6">
-      <c r="A160" s="43"/>
-      <c r="B160" s="42" t="s">
+      <c r="A160" s="38"/>
+      <c r="B160" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E160" s="25" t="s">
+      <c r="E160" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F160" s="34" t="s">
+      <c r="F160" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="161" ht="29.25" spans="1:6">
-      <c r="A161" s="43"/>
-      <c r="B161" s="44" t="s">
+      <c r="A161" s="38"/>
+      <c r="B161" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45" t="s">
+      <c r="C161" s="40"/>
+      <c r="D161" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="E161" s="46" t="s">
+      <c r="E161" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F161" s="47" t="s">
+      <c r="F161" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="43"/>
+    <row r="162" spans="1:3">
+      <c r="A162" s="38"/>
       <c r="B162" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="43"/>
-      <c r="B163" s="1" t="s">
+      <c r="C162" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="43"/>
-      <c r="B164" s="1" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" s="38"/>
+      <c r="C163" t="s">
         <v>187</v>
       </c>
     </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="38"/>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="43"/>
+      <c r="A165" s="38"/>
       <c r="B165" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="43"/>
+      <c r="A166" s="38"/>
       <c r="B166" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="43" t="s">
-        <v>190</v>
-      </c>
+      <c r="A167" s="38"/>
       <c r="B167" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="43"/>
+      <c r="A168" s="38"/>
       <c r="B168" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="43"/>
+      <c r="A169" s="38" t="s">
+        <v>193</v>
+      </c>
       <c r="B169" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="43"/>
+      <c r="A170" s="38"/>
       <c r="B170" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="38"/>
+      <c r="B171" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="38"/>
+      <c r="B172" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3812,8 +3814,8 @@
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="A147:A152"/>
     <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A159:A166"/>
-    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="A169:A172"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B40"/>
